--- a/src/tl/research.xlsx
+++ b/src/tl/research.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2145" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="574">
   <si>
     <t>Gen</t>
   </si>
@@ -1687,6 +1687,57 @@
   </si>
   <si>
     <t>Karunungan ni Solomon</t>
+  </si>
+  <si>
+    <t>Philippine Bible Society</t>
+  </si>
+  <si>
+    <t>Ex</t>
+  </si>
+  <si>
+    <t>Ec</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>Blg</t>
+  </si>
+  <si>
+    <t>Apoc</t>
+  </si>
+  <si>
+    <t>Luc</t>
+  </si>
+  <si>
+    <t>Mat</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Tit</t>
+  </si>
+  <si>
+    <t>Jud</t>
+  </si>
+  <si>
+    <t>1 Cron</t>
+  </si>
+  <si>
+    <t>2 Cron</t>
+  </si>
+  <si>
+    <t>Sant</t>
+  </si>
+  <si>
+    <t>Os</t>
+  </si>
+  <si>
+    <t>A ng A</t>
+  </si>
+  <si>
+    <t>Flm</t>
   </si>
 </sst>
 </file>
@@ -1760,6 +1811,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1807,7 +1861,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1842,7 +1896,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2051,15 +2105,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>168</v>
       </c>
@@ -2072,8 +2126,11 @@
       <c r="P1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2154,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2119,8 +2176,11 @@
       <c r="Q3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2146,7 +2206,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2168,8 +2228,11 @@
       <c r="Q5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2204,7 +2267,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2293,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2253,7 +2316,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2296,7 +2359,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2316,7 +2379,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2342,7 +2405,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2368,7 +2431,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2405,8 +2468,11 @@
       <c r="Q14" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2443,8 +2509,11 @@
       <c r="Q15" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2467,7 +2536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2493,7 +2562,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2513,7 +2582,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2533,7 +2602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2559,7 +2628,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2582,7 +2651,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2616,8 +2685,11 @@
       <c r="Q22" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2651,8 +2723,11 @@
       <c r="Q23" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2671,8 +2746,11 @@
       <c r="Q24" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2701,7 +2779,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2733,7 +2811,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2756,7 +2834,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2776,7 +2854,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2804,8 +2882,11 @@
       <c r="Q29" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2828,7 +2909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2851,7 +2932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2877,7 +2958,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2900,7 +2981,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2932,7 +3013,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2955,7 +3036,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2978,7 +3059,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3010,7 +3091,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3039,7 +3120,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3065,7 +3146,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3091,7 +3172,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3131,8 +3212,11 @@
       <c r="Q41" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3169,8 +3253,11 @@
       <c r="Q42" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3207,8 +3294,11 @@
       <c r="Q43" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3249,7 +3339,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3302,7 +3392,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3331,7 +3421,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3369,7 +3459,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3404,7 +3494,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3444,8 +3534,11 @@
       <c r="Q49" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3480,7 +3573,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3521,7 +3614,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3556,7 +3649,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3594,7 +3687,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3632,7 +3725,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3658,7 +3751,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3684,7 +3777,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3706,8 +3799,11 @@
       <c r="Q57" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3732,8 +3828,11 @@
       <c r="Q58" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3762,7 +3861,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3787,8 +3886,11 @@
       <c r="Q60" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3811,7 +3913,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3834,7 +3936,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3857,7 +3959,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3880,7 +3982,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3903,7 +4005,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3928,8 +4030,11 @@
       <c r="Q66" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3963,8 +4068,11 @@
       <c r="Q67" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3987,7 +4095,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4004,7 +4112,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4021,7 +4129,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4050,7 +4158,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4094,7 +4202,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4111,7 +4219,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4122,7 +4230,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4139,7 +4247,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4159,7 +4267,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4194,7 +4302,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4214,7 +4322,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4234,7 +4342,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
